--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gm13306-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gm13306-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Gm13306</t>
+  </si>
+  <si>
+    <t>Ccr10</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Gm13306</t>
-  </si>
-  <si>
-    <t>Ccr10</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06493566666666666</v>
+        <v>0.1234563333333333</v>
       </c>
       <c r="H2">
-        <v>0.194807</v>
+        <v>0.370369</v>
       </c>
       <c r="I2">
-        <v>0.2398988717276777</v>
+        <v>0.4718467134221305</v>
       </c>
       <c r="J2">
-        <v>0.2398988717276777</v>
+        <v>0.4718467134221305</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.7301516666666666</v>
+        <v>0.478362</v>
       </c>
       <c r="N2">
-        <v>2.190455</v>
+        <v>1.435086</v>
       </c>
       <c r="O2">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="P2">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="Q2">
-        <v>0.04741288524277777</v>
+        <v>0.059056818526</v>
       </c>
       <c r="R2">
-        <v>0.426715967185</v>
+        <v>0.531511366734</v>
       </c>
       <c r="S2">
-        <v>0.178270650389406</v>
+        <v>0.3082831794641865</v>
       </c>
       <c r="T2">
-        <v>0.178270650389406</v>
+        <v>0.3082831794641865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06493566666666666</v>
+        <v>0.1234563333333333</v>
       </c>
       <c r="H3">
-        <v>0.194807</v>
+        <v>0.370369</v>
       </c>
       <c r="I3">
-        <v>0.2398988717276777</v>
+        <v>0.4718467134221305</v>
       </c>
       <c r="J3">
-        <v>0.2398988717276777</v>
+        <v>0.4718467134221305</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +620,22 @@
         <v>0.466686</v>
       </c>
       <c r="O3">
-        <v>0.1583222964647644</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="P3">
-        <v>0.1583222964647643</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="Q3">
-        <v>0.010101522178</v>
+        <v>0.019205114126</v>
       </c>
       <c r="R3">
-        <v>0.09091369960199999</v>
+        <v>0.172846027134</v>
       </c>
       <c r="S3">
-        <v>0.03798134029123187</v>
+        <v>0.1002528377333647</v>
       </c>
       <c r="T3">
-        <v>0.03798134029123187</v>
+        <v>0.1002528377333646</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06493566666666666</v>
+        <v>0.1234563333333333</v>
       </c>
       <c r="H4">
-        <v>0.194807</v>
+        <v>0.370369</v>
       </c>
       <c r="I4">
-        <v>0.2398988717276777</v>
+        <v>0.4718467134221305</v>
       </c>
       <c r="J4">
-        <v>0.2398988717276777</v>
+        <v>0.4718467134221305</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +676,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.09685166666666667</v>
+        <v>0.09823900000000001</v>
       </c>
       <c r="N4">
-        <v>0.290555</v>
+        <v>0.294717</v>
       </c>
       <c r="O4">
-        <v>0.09857020534003508</v>
+        <v>0.134176406073511</v>
       </c>
       <c r="P4">
-        <v>0.09857020534003506</v>
+        <v>0.1341764060735109</v>
       </c>
       <c r="Q4">
-        <v>0.006289127542777777</v>
+        <v>0.01212822673033333</v>
       </c>
       <c r="R4">
-        <v>0.056602147885</v>
+        <v>0.109154040573</v>
       </c>
       <c r="S4">
-        <v>0.02364688104703993</v>
+        <v>0.06331069622457934</v>
       </c>
       <c r="T4">
-        <v>0.02364688104703993</v>
+        <v>0.06331069622457933</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -723,16 +720,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1234563333333333</v>
+        <v>0.1381886666666667</v>
       </c>
       <c r="H5">
-        <v>0.370369</v>
+        <v>0.414566</v>
       </c>
       <c r="I5">
-        <v>0.4560981136350762</v>
+        <v>0.5281532865778694</v>
       </c>
       <c r="J5">
-        <v>0.4560981136350762</v>
+        <v>0.5281532865778695</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.7301516666666666</v>
+        <v>0.478362</v>
       </c>
       <c r="N5">
-        <v>2.190455</v>
+        <v>1.435086</v>
       </c>
       <c r="O5">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="P5">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="Q5">
-        <v>0.09014184754388889</v>
+        <v>0.06610420696399999</v>
       </c>
       <c r="R5">
-        <v>0.811276627895</v>
+        <v>0.594937862676</v>
       </c>
       <c r="S5">
-        <v>0.3389299281549118</v>
+        <v>0.3450713331238573</v>
       </c>
       <c r="T5">
-        <v>0.3389299281549118</v>
+        <v>0.3450713331238574</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1234563333333333</v>
+        <v>0.1381886666666667</v>
       </c>
       <c r="H6">
-        <v>0.370369</v>
+        <v>0.414566</v>
       </c>
       <c r="I6">
-        <v>0.4560981136350762</v>
+        <v>0.5281532865778694</v>
       </c>
       <c r="J6">
-        <v>0.4560981136350762</v>
+        <v>0.5281532865778695</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,22 +806,22 @@
         <v>0.466686</v>
       </c>
       <c r="O6">
-        <v>0.1583222964647644</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="P6">
-        <v>0.1583222964647643</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="Q6">
-        <v>0.019205114126</v>
+        <v>0.021496905364</v>
       </c>
       <c r="R6">
-        <v>0.172846027134</v>
+        <v>0.193472148276</v>
       </c>
       <c r="S6">
-        <v>0.07221050076395231</v>
+        <v>0.1122162436050805</v>
       </c>
       <c r="T6">
-        <v>0.0722105007639523</v>
+        <v>0.1122162436050805</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,16 +844,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1234563333333333</v>
+        <v>0.1381886666666667</v>
       </c>
       <c r="H7">
-        <v>0.370369</v>
+        <v>0.414566</v>
       </c>
       <c r="I7">
-        <v>0.4560981136350762</v>
+        <v>0.5281532865778694</v>
       </c>
       <c r="J7">
-        <v>0.4560981136350762</v>
+        <v>0.5281532865778695</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,400 +862,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.09685166666666667</v>
+        <v>0.09823900000000001</v>
       </c>
       <c r="N7">
-        <v>0.290555</v>
+        <v>0.294717</v>
       </c>
       <c r="O7">
-        <v>0.09857020534003508</v>
+        <v>0.134176406073511</v>
       </c>
       <c r="P7">
-        <v>0.09857020534003506</v>
+        <v>0.1341764060735109</v>
       </c>
       <c r="Q7">
-        <v>0.01195695164388889</v>
+        <v>0.01357551642466667</v>
       </c>
       <c r="R7">
-        <v>0.107612564795</v>
+        <v>0.122179647822</v>
       </c>
       <c r="S7">
-        <v>0.04495768471621212</v>
+        <v>0.07086570984893162</v>
       </c>
       <c r="T7">
-        <v>0.04495768471621211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.04713000000000001</v>
-      </c>
-      <c r="H8">
-        <v>0.14139</v>
-      </c>
-      <c r="I8">
-        <v>0.1741174674091607</v>
-      </c>
-      <c r="J8">
-        <v>0.1741174674091607</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.7301516666666666</v>
-      </c>
-      <c r="N8">
-        <v>2.190455</v>
-      </c>
-      <c r="O8">
-        <v>0.7431074981952006</v>
-      </c>
-      <c r="P8">
-        <v>0.7431074981952006</v>
-      </c>
-      <c r="Q8">
-        <v>0.03441204805</v>
-      </c>
-      <c r="R8">
-        <v>0.30970843245</v>
-      </c>
-      <c r="S8">
-        <v>0.1293879955985058</v>
-      </c>
-      <c r="T8">
-        <v>0.1293879955985058</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.04713000000000001</v>
-      </c>
-      <c r="H9">
-        <v>0.14139</v>
-      </c>
-      <c r="I9">
-        <v>0.1741174674091607</v>
-      </c>
-      <c r="J9">
-        <v>0.1741174674091607</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.155562</v>
-      </c>
-      <c r="N9">
-        <v>0.466686</v>
-      </c>
-      <c r="O9">
-        <v>0.1583222964647644</v>
-      </c>
-      <c r="P9">
-        <v>0.1583222964647643</v>
-      </c>
-      <c r="Q9">
-        <v>0.007331637060000001</v>
-      </c>
-      <c r="R9">
-        <v>0.06598473354000001</v>
-      </c>
-      <c r="S9">
-        <v>0.02756667729484709</v>
-      </c>
-      <c r="T9">
-        <v>0.02756667729484708</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.04713000000000001</v>
-      </c>
-      <c r="H10">
-        <v>0.14139</v>
-      </c>
-      <c r="I10">
-        <v>0.1741174674091607</v>
-      </c>
-      <c r="J10">
-        <v>0.1741174674091607</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.09685166666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.290555</v>
-      </c>
-      <c r="O10">
-        <v>0.09857020534003508</v>
-      </c>
-      <c r="P10">
-        <v>0.09857020534003506</v>
-      </c>
-      <c r="Q10">
-        <v>0.00456461905</v>
-      </c>
-      <c r="R10">
-        <v>0.04108157145000001</v>
-      </c>
-      <c r="S10">
-        <v>0.01716279451580783</v>
-      </c>
-      <c r="T10">
-        <v>0.01716279451580783</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.03515733333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.105472</v>
-      </c>
-      <c r="I11">
-        <v>0.1298855472280854</v>
-      </c>
-      <c r="J11">
-        <v>0.1298855472280854</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.7301516666666666</v>
-      </c>
-      <c r="N11">
-        <v>2.190455</v>
-      </c>
-      <c r="O11">
-        <v>0.7431074981952006</v>
-      </c>
-      <c r="P11">
-        <v>0.7431074981952006</v>
-      </c>
-      <c r="Q11">
-        <v>0.02567018552888889</v>
-      </c>
-      <c r="R11">
-        <v>0.23103166976</v>
-      </c>
-      <c r="S11">
-        <v>0.09651892405237709</v>
-      </c>
-      <c r="T11">
-        <v>0.09651892405237709</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.03515733333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.105472</v>
-      </c>
-      <c r="I12">
-        <v>0.1298855472280854</v>
-      </c>
-      <c r="J12">
-        <v>0.1298855472280854</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.155562</v>
-      </c>
-      <c r="N12">
-        <v>0.466686</v>
-      </c>
-      <c r="O12">
-        <v>0.1583222964647644</v>
-      </c>
-      <c r="P12">
-        <v>0.1583222964647643</v>
-      </c>
-      <c r="Q12">
-        <v>0.005469145088</v>
-      </c>
-      <c r="R12">
-        <v>0.04922230579199999</v>
-      </c>
-      <c r="S12">
-        <v>0.02056377811473309</v>
-      </c>
-      <c r="T12">
-        <v>0.02056377811473308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.03515733333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.105472</v>
-      </c>
-      <c r="I13">
-        <v>0.1298855472280854</v>
-      </c>
-      <c r="J13">
-        <v>0.1298855472280854</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.09685166666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.290555</v>
-      </c>
-      <c r="O13">
-        <v>0.09857020534003508</v>
-      </c>
-      <c r="P13">
-        <v>0.09857020534003506</v>
-      </c>
-      <c r="Q13">
-        <v>0.003405046328888889</v>
-      </c>
-      <c r="R13">
-        <v>0.03064541696</v>
-      </c>
-      <c r="S13">
-        <v>0.0128028450609752</v>
-      </c>
-      <c r="T13">
-        <v>0.0128028450609752</v>
+        <v>0.07086570984893162</v>
       </c>
     </row>
   </sheetData>
